--- a/biology/Mycologie/Hortiboletus_bubalinus/Hortiboletus_bubalinus.xlsx
+++ b/biology/Mycologie/Hortiboletus_bubalinus/Hortiboletus_bubalinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet chamois, Bolet des parcs
 Hortiboletus bubalinus, le Bolet chamois, anciennement Xerocomus bubalinus, est une espèce de champignons (Fungi) basidiomycètes du genre Hortiboletus dans la famille des Boletaceae. Comestible moyen, il est caractérisé par sa chair rose sous la cuticule et bleuissante au dessus des tubes à la coupe ainsi qu'à son habitat souvent dans les jardins et autres zones herbeuses.
@@ -512,17 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hortiboletus bubalinus (Oolbekk. &amp; Duin) L.Albert &amp; Dima[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus bubalinus Oolbekk. &amp; Duin[1].
-Synonymes
-Hortiboletus bubalinus a pour synonymes[1] :
-Boletus bubalinus Oolbekk. &amp; Duin
-Xerocomellus bubalinus (Oolbekk. &amp; Duin) Mikšík
-Xerocomus bubalinus (Oolbekk. &amp; Duin) Redeuilh
-Phylogénie
-Décrit à l'origine en 1991 comme une espèce de Boletus[2], le champignon a été transféré dans le genre Xerocomus en 1993[3], puis dans le genre Hortiboletus par Bálint Dima en 2015[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hortiboletus bubalinus (Oolbekk. &amp; Duin) L.Albert &amp; Dima.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus bubalinus Oolbekk. &amp; Duin.
 </t>
         </is>
       </c>
@@ -548,18 +555,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hortiboletus bubalinus a pour synonymes :
+Boletus bubalinus Oolbekk. &amp; Duin
+Xerocomellus bubalinus (Oolbekk. &amp; Duin) Mikšík
+Xerocomus bubalinus (Oolbekk. &amp; Duin) Redeuilh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hortiboletus_bubalinus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortiboletus_bubalinus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit à l'origine en 1991 comme une espèce de Boletus, le champignon a été transféré dans le genre Xerocomus en 1993, puis dans le genre Hortiboletus par Bálint Dima en 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hortiboletus_bubalinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortiboletus_bubalinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de (espèce) sont les suivantes :
-Son chapeau est variable, de couleur brun-rouge sombre à ochracé rougeâtre, mais parfois rouge ou ocre[5].
-L'hyménophore présente des pores jaunes puis verdâtres, bleuissant au toucher[5].
-Son stipe est jaune pâle fréquemment rayé de rouge, aminci à la base[5].
-Sa chair est à la coupe typiquement rose sous la cuticule, bleue au-dessus des tubes et généralement aussi au sommet du stipe, parfois bleue sur toute la longueur[5]. Ce bleu surmonté de rose au niveau du chapeau à la coupe faisant penser à un crépuscule sur mer est le critère d'identification principal de cette espèce. Son mycélium est de couleur jaune[5], la saveur de sa chair est douce[6].
-Caractéristiques microscopiques
-Ses spores mesurent 12-14 x 4,5-5 µm[5].
+Son chapeau est variable, de couleur brun-rouge sombre à ochracé rougeâtre, mais parfois rouge ou ocre.
+L'hyménophore présente des pores jaunes puis verdâtres, bleuissant au toucher.
+Son stipe est jaune pâle fréquemment rayé de rouge, aminci à la base.
+Sa chair est à la coupe typiquement rose sous la cuticule, bleue au-dessus des tubes et généralement aussi au sommet du stipe, parfois bleue sur toute la longueur. Ce bleu surmonté de rose au niveau du chapeau à la coupe faisant penser à un crépuscule sur mer est le critère d'identification principal de cette espèce. Son mycélium est de couleur jaune, la saveur de sa chair est douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hortiboletus_bubalinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortiboletus_bubalinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12-14 x 4,5-5 µm.
 </t>
         </is>
       </c>
